--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3533.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3533.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.388201279412802</v>
+        <v>1.057685732841492</v>
       </c>
       <c r="B1">
-        <v>2.712099664813046</v>
+        <v>1.357896327972412</v>
       </c>
       <c r="C1">
-        <v>2.869017287955361</v>
+        <v>1.302277207374573</v>
       </c>
       <c r="D1">
-        <v>2.303029240884329</v>
+        <v>1.526670813560486</v>
       </c>
       <c r="E1">
-        <v>0.7981397606374986</v>
+        <v>1.316855907440186</v>
       </c>
     </row>
   </sheetData>
